--- a/medicine/Sexualité et sexologie/Belle_de_jour_(film)/Belle_de_jour_(film).xlsx
+++ b/medicine/Sexualité et sexologie/Belle_de_jour_(film)/Belle_de_jour_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Belle de jour est une drame psychologique érotique surréaliste de la nouvelle vague italo-française de Luis Buñuel, sortie en 1967, tirée du roman Belle de jour de Joseph Kessel paru en 1928.
 Le titre évoque le nom d'une fleur qui ne fleurit que la journée, et en l'occurrence fait référence au surnom du personnage principal du film, une call-girl à qui la patronne de la maison de passe qu'elle fréquente a donné ce surnom, parce qu'elle n'offre ses charmes que l'après-midi (de 14 h à 17 h).
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Séverine Serizy (Catherine Deneuve) est une jeune et très belle femme aux fantasmes masochistes assez particuliers. Elle est mariée au très charmant docteur Pierre Serizy (Jean Sorel) qu'elle aime « au-delà du plaisir ». Elle ne parvient pas en effet à trouver le plaisir auprès de lui, ce qui les frustre tous deux. Un ami du couple, que le jeune docteur apprécie beaucoup plus que sa femme, Monsieur Henri Husson (Michel Piccoli), en vient à parler à Séverine d'un bordel de luxe qu'il fréquentait dans le passé et, accessoirement, lui avoue son désir pour elle.
 Séverine, à la personnalité brisée, et qui est, selon toute apparence, insatisfaite sexuellement, finit par se rendre dans le mauvais lieu que lui a signalé Husson, entre en contact avec la patronne de l'endroit, Madame Anaïs (Geneviève Page), qui pense qu'elle a des problèmes d'argent, et commence à y travailler secrètement, étant entendu qu'elle ne s'y prostituera que certains après-midi de 14 à 17 heures (d'où le surnom qu'on lui donne : « Belle de jour »). Elle retrouve ensuite, en fin d'après-midi, les bras de son mari, qui, amoureux confiant et heureux, ne se doute évidemment de rien.
@@ -550,7 +564,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original français : Belle de jour
 Titre italien : Bella di giorno
@@ -562,7 +578,7 @@
 Montage : Louisette Hautecoeur
 Musique : Michel Magne
 Décors : Robert Clavel
-Costumes (Catherine Deneuve) : Yves Saint Laurent[1]
+Costumes (Catherine Deneuve) : Yves Saint Laurent
 Son : René Longuet
 Script-girl : Suzanne Durrenberger
 Régisseur général : Marc Goldstaub
@@ -605,7 +621,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Catherine Deneuve : Séverine Sérizy dite « Belle de jour »
@@ -668,7 +686,9 @@
           <t>Récompenses et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lion d'or au Festival de Venise 1967
 Prix Méliès en 1967</t>
@@ -699,10 +719,12 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour Olivier Bourque de la revue Séquences, Buñuel brosse « un portrait implacable des contraintes de la bourgeoisie. Sans jugement aucun, il accompagne cette femme, cette héroïne bovarienne, qui ne peut vivre dans un milieu social qu'elle trouve étouffant. Il ne donne pas plus de réponses sur les motivations de la belle à être violée, brutalisée. Mais le film apporte tout de même un éclairage : Séverine se transforme en une épouse épanouie à partir du moment où elle devient Belle de jour[2]  ».
-« Dans ce récit d'une riche épouse d'un interne en médecine qui se livre à la prostitution occasionnelle, Buñuel porte, à son habitude, un regard acide sur la bourgeoisie. Mais il aborde aussi avec pudeur des interrogations sur le bien et le mal, sur la recherche ambigüe du plaisir masochiste par cette femme sujette au bovarysme dans des conditions qui peuvent être humiliantes. Peut-on vendre son corps et y trouver du plaisir ? Et peut-on vendre son corps tout en restant fidèle ? On peut se demander si certaines scènes sont nées de l'imagination de Séverine, ou si elles ont réellement lieu. Ce film présente le conflit entre le plus tendre amour et l'exigence implacable des sens. Mêlant adroitement rêve et réalité, Luis Buñuel brosse un portrait de femme ambigu et troublant, que l’exercice du vice transfigure[3]. »
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour Olivier Bourque de la revue Séquences, Buñuel brosse « un portrait implacable des contraintes de la bourgeoisie. Sans jugement aucun, il accompagne cette femme, cette héroïne bovarienne, qui ne peut vivre dans un milieu social qu'elle trouve étouffant. Il ne donne pas plus de réponses sur les motivations de la belle à être violée, brutalisée. Mais le film apporte tout de même un éclairage : Séverine se transforme en une épouse épanouie à partir du moment où elle devient Belle de jour  ».
+« Dans ce récit d'une riche épouse d'un interne en médecine qui se livre à la prostitution occasionnelle, Buñuel porte, à son habitude, un regard acide sur la bourgeoisie. Mais il aborde aussi avec pudeur des interrogations sur le bien et le mal, sur la recherche ambigüe du plaisir masochiste par cette femme sujette au bovarysme dans des conditions qui peuvent être humiliantes. Peut-on vendre son corps et y trouver du plaisir ? Et peut-on vendre son corps tout en restant fidèle ? On peut se demander si certaines scènes sont nées de l'imagination de Séverine, ou si elles ont réellement lieu. Ce film présente le conflit entre le plus tendre amour et l'exigence implacable des sens. Mêlant adroitement rêve et réalité, Luis Buñuel brosse un portrait de femme ambigu et troublant, que l’exercice du vice transfigure. »
 </t>
         </is>
       </c>
@@ -731,7 +753,9 @@
           <t>À noter</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le réalisateur américain Martin Scorsese a fait en sorte que le film sorte en DVD en 2002.
 En 2006, le réalisateur portugais Manoel de Oliveira a sorti Belle toujours, qui raconte la rencontre imaginée entre deux personnages du film.</t>
